--- a/Assets/Рассчеты.xlsx
+++ b/Assets/Рассчеты.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavrykunov/Desktop/Unity/New Tookon/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB7948-32AF-ED44-AD15-82EF57BBFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A290D2-86C0-EC4B-923F-88AEC70FF671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17740" yWindow="0" windowWidth="11060" windowHeight="18000" activeTab="1" xr2:uid="{DEE10784-D103-914B-B8BF-C7C5F7B1950A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DEE10784-D103-914B-B8BF-C7C5F7B1950A}"/>
   </bookViews>
   <sheets>
     <sheet name="От времени прохождения" sheetId="1" r:id="rId1"/>
     <sheet name="От стоимости" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Номер здания</t>
   </si>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,7 +176,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <f>D2+$F$18</f>
+        <f t="shared" ref="D3:D45" si="0">D2+$F$18</f>
         <v>10.803382663847779</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1772,11 +1772,11 @@
         <v>46</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C45" si="0">ROUND(C3+($F$10-$C$2)/($F$8-1),0)</f>
+        <f t="shared" ref="C4:C45" si="1">ROUND(C3+($F$10-$C$2)/($F$8-1),0)</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f>D3+$F$18</f>
+        <f t="shared" si="0"/>
         <v>11.606765327695559</v>
       </c>
       <c r="F4">
@@ -1792,11 +1792,11 @@
         <v>87</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <f>D4+$F$18</f>
+        <f t="shared" si="0"/>
         <v>12.410147991543338</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1812,11 +1812,11 @@
         <v>145</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f>D5+$F$18</f>
+        <f t="shared" si="0"/>
         <v>13.213530655391118</v>
       </c>
       <c r="F6">
@@ -1832,11 +1832,11 @@
         <v>224</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <f>D6+$F$18</f>
+        <f t="shared" si="0"/>
         <v>14.016913319238897</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1852,11 +1852,11 @@
         <v>326</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <f>D7+$F$18</f>
+        <f t="shared" si="0"/>
         <v>14.820295983086677</v>
       </c>
       <c r="F8">
@@ -1873,11 +1873,11 @@
         <v>453</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <f>D8+$F$18</f>
+        <f t="shared" si="0"/>
         <v>15.623678646934456</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1893,11 +1893,11 @@
         <v>608</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <f>D9+$F$18</f>
+        <f t="shared" si="0"/>
         <v>16.427061310782236</v>
       </c>
       <c r="F10">
@@ -1913,11 +1913,11 @@
         <v>793</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <f>D10+$F$18</f>
+        <f t="shared" si="0"/>
         <v>17.230443974630017</v>
       </c>
     </row>
@@ -1930,11 +1930,11 @@
         <v>1010</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D12" s="1">
-        <f>D11+$F$18</f>
+        <f t="shared" si="0"/>
         <v>18.033826638477798</v>
       </c>
     </row>
@@ -1947,11 +1947,11 @@
         <v>1262</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D13" s="1">
-        <f>D12+$F$18</f>
+        <f t="shared" si="0"/>
         <v>18.837209302325579</v>
       </c>
     </row>
@@ -1964,11 +1964,11 @@
         <v>1552</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D14" s="1">
-        <f>D13+$F$18</f>
+        <f t="shared" si="0"/>
         <v>19.640591966173361</v>
       </c>
     </row>
@@ -1981,11 +1981,11 @@
         <v>1881</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <f>D14+$F$18</f>
+        <f t="shared" si="0"/>
         <v>20.443974630021142</v>
       </c>
       <c r="F15" t="s">
@@ -2001,11 +2001,11 @@
         <v>2252</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D16" s="1">
-        <f>D15+$F$18</f>
+        <f t="shared" si="0"/>
         <v>21.247357293868923</v>
       </c>
       <c r="F16">
@@ -2022,11 +2022,11 @@
         <v>2668</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D17" s="1">
-        <f>D16+$F$18</f>
+        <f t="shared" si="0"/>
         <v>22.050739957716704</v>
       </c>
       <c r="F17" t="s">
@@ -2042,11 +2042,11 @@
         <v>3131</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D18" s="1">
-        <f>D17+$F$18</f>
+        <f t="shared" si="0"/>
         <v>22.854122621564485</v>
       </c>
       <c r="F18">
@@ -2063,11 +2063,11 @@
         <v>3643</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D19" s="1">
-        <f>D18+$F$18</f>
+        <f t="shared" si="0"/>
         <v>23.657505285412267</v>
       </c>
     </row>
@@ -2080,11 +2080,11 @@
         <v>4207</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D20" s="1">
-        <f>D19+$F$18</f>
+        <f t="shared" si="0"/>
         <v>24.460887949260048</v>
       </c>
     </row>
@@ -2097,11 +2097,11 @@
         <v>4825</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D21" s="1">
-        <f>D20+$F$18</f>
+        <f t="shared" si="0"/>
         <v>25.264270613107829</v>
       </c>
     </row>
@@ -2114,11 +2114,11 @@
         <v>5500</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D22" s="1">
-        <f>D21+$F$18</f>
+        <f t="shared" si="0"/>
         <v>26.06765327695561</v>
       </c>
     </row>
@@ -2131,11 +2131,11 @@
         <v>6234</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D23" s="1">
-        <f>D22+$F$18</f>
+        <f t="shared" si="0"/>
         <v>26.871035940803392</v>
       </c>
     </row>
@@ -2148,11 +2148,11 @@
         <v>7029</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D24" s="1">
-        <f>D23+$F$18</f>
+        <f t="shared" si="0"/>
         <v>27.674418604651173</v>
       </c>
     </row>
@@ -2165,11 +2165,11 @@
         <v>7888</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D25" s="1">
-        <f>D24+$F$18</f>
+        <f t="shared" si="0"/>
         <v>28.477801268498954</v>
       </c>
     </row>
@@ -2182,11 +2182,11 @@
         <v>8814</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D26" s="1">
-        <f>D25+$F$18</f>
+        <f t="shared" si="0"/>
         <v>29.281183932346735</v>
       </c>
     </row>
@@ -2199,11 +2199,11 @@
         <v>9808</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D27" s="1">
-        <f>D26+$F$18</f>
+        <f t="shared" si="0"/>
         <v>30.084566596194517</v>
       </c>
     </row>
@@ -2216,11 +2216,11 @@
         <v>10873</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D28" s="1">
-        <f>D27+$F$18</f>
+        <f t="shared" si="0"/>
         <v>30.887949260042298</v>
       </c>
     </row>
@@ -2233,11 +2233,11 @@
         <v>12011</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D29" s="1">
-        <f>D28+$F$18</f>
+        <f t="shared" si="0"/>
         <v>31.691331923890079</v>
       </c>
     </row>
@@ -2250,11 +2250,11 @@
         <v>13225</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D30" s="1">
-        <f>D29+$F$18</f>
+        <f t="shared" si="0"/>
         <v>32.49471458773786</v>
       </c>
     </row>
@@ -2267,11 +2267,11 @@
         <v>14518</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D31" s="1">
-        <f>D30+$F$18</f>
+        <f t="shared" si="0"/>
         <v>33.298097251585638</v>
       </c>
     </row>
@@ -2284,11 +2284,11 @@
         <v>15891</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D32" s="1">
-        <f>D31+$F$18</f>
+        <f t="shared" si="0"/>
         <v>34.101479915433416</v>
       </c>
     </row>
@@ -2301,11 +2301,11 @@
         <v>17348</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D33" s="1">
-        <f>D32+$F$18</f>
+        <f t="shared" si="0"/>
         <v>34.904862579281193</v>
       </c>
     </row>
@@ -2318,11 +2318,11 @@
         <v>18890</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D34" s="1">
-        <f>D33+$F$18</f>
+        <f t="shared" si="0"/>
         <v>35.708245243128971</v>
       </c>
     </row>
@@ -2335,11 +2335,11 @@
         <v>20520</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D35" s="1">
-        <f>D34+$F$18</f>
+        <f t="shared" si="0"/>
         <v>36.511627906976749</v>
       </c>
     </row>
@@ -2352,11 +2352,11 @@
         <v>22240</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D36" s="1">
-        <f>D35+$F$18</f>
+        <f t="shared" si="0"/>
         <v>37.315010570824526</v>
       </c>
     </row>
@@ -2369,11 +2369,11 @@
         <v>24053</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D37" s="1">
-        <f>D36+$F$18</f>
+        <f t="shared" si="0"/>
         <v>38.118393234672304</v>
       </c>
     </row>
@@ -2386,11 +2386,11 @@
         <v>25961</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D38" s="1">
-        <f>D37+$F$18</f>
+        <f t="shared" si="0"/>
         <v>38.921775898520082</v>
       </c>
     </row>
@@ -2403,11 +2403,11 @@
         <v>27967</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D39" s="1">
-        <f>D38+$F$18</f>
+        <f t="shared" si="0"/>
         <v>39.725158562367859</v>
       </c>
     </row>
@@ -2420,11 +2420,11 @@
         <v>30072</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D40" s="1">
-        <f>D39+$F$18</f>
+        <f t="shared" si="0"/>
         <v>40.528541226215637</v>
       </c>
     </row>
@@ -2437,11 +2437,11 @@
         <v>32280</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D41" s="1">
-        <f>D40+$F$18</f>
+        <f t="shared" si="0"/>
         <v>41.331923890063415</v>
       </c>
     </row>
@@ -2454,11 +2454,11 @@
         <v>34593</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D42" s="1">
-        <f>D41+$F$18</f>
+        <f t="shared" si="0"/>
         <v>42.135306553911192</v>
       </c>
     </row>
@@ -2471,11 +2471,11 @@
         <v>37013</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D43" s="1">
-        <f>D42+$F$18</f>
+        <f t="shared" si="0"/>
         <v>42.93868921775897</v>
       </c>
     </row>
@@ -2488,11 +2488,11 @@
         <v>39543</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="D44" s="1">
-        <f>D43+$F$18</f>
+        <f t="shared" si="0"/>
         <v>43.742071881606748</v>
       </c>
     </row>
@@ -2505,11 +2505,11 @@
         <v>42185</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D45" s="1">
-        <f>D44+$F$18</f>
+        <f t="shared" si="0"/>
         <v>44.545454545454525</v>
       </c>
     </row>
@@ -2520,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7053F896-4628-DB4B-AD8D-8272EA0BC9B7}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F8">
         <f>COUNT(A2:A10000)</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3037,7 +3037,7 @@
         <v>34.246575342465754</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>31.055900621118013</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>28.40909090909091</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>26.178010471204189</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>24.271844660194176</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>33.936651583710407</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>42.372881355932201</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>37.593984962406012</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>33.783783783783782</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>30.674846625766872</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>42.134831460674157</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>32.89473684210526</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>26.978417266187051</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -3230,6 +3230,688 @@
       <c r="D45" s="1">
         <f>B45/(SUM($C$2:C44)+1)</f>
         <v>30.487804878048781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <f>B47</f>
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <f>B48/(SUM($C$47:C47)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <f>SUM(D47:D90)/60</f>
+        <v>10.096124922325954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <f>B49/(SUM($C$47:C48)+1)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f>B50/(SUM($C$47:C49)+1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F50" s="3">
+        <f>F48/1.25</f>
+        <v>8.0768999378607624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <f>B51/(SUM($C$47:C50)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <f>B52/(SUM($C$47:C51)+1)</f>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <f>B53/(SUM($C$47:C52)+1)</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <f>B54/(SUM($C$47:C53)+1)</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="F54">
+        <f>COUNT(A48:A10046)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <f>B55/(SUM($C$47:C54)+1)</f>
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <f>B56/(SUM($C$47:C55)+1)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <f>B57/(SUM($C$47:C56)+1)</f>
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>150</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <f>B58/(SUM($C$47:C57)+1)</f>
+        <v>7.8947368421052628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>150</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <f>B59/(SUM($C$47:C58)+1)</f>
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>150</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <f>B60/(SUM($C$47:C59)+1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>250</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <f>B61/(SUM($C$47:C60)+1)</f>
+        <v>8.9285714285714288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>250</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <f>B62/(SUM($C$47:C61)+1)</f>
+        <v>8.064516129032258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>500</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1">
+        <f>B63/(SUM($C$47:C62)+1)</f>
+        <v>14.705882352941176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>18</v>
+      </c>
+      <c r="B64">
+        <v>500</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <f>B64/(SUM($C$47:C63)+1)</f>
+        <v>13.157894736842104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>19</v>
+      </c>
+      <c r="B65">
+        <v>750</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <f>B65/(SUM($C$47:C64)+1)</f>
+        <v>17.441860465116278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>750</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1">
+        <f>B66/(SUM($C$47:C65)+1)</f>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>21</v>
+      </c>
+      <c r="B67">
+        <v>750</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <f>B67/(SUM($C$47:C66)+1)</f>
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>750</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <f>B68/(SUM($C$47:C67)+1)</f>
+        <v>12.096774193548388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>750</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <f>B69/(SUM($C$47:C68)+1)</f>
+        <v>10.869565217391305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <v>800</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <f>B70/(SUM($C$47:C69)+1)</f>
+        <v>10.526315789473685</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>800</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <f>B71/(SUM($C$47:C70)+1)</f>
+        <v>9.3023255813953494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <v>800</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1">
+        <f>B72/(SUM($C$47:C71)+1)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>1000</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <f>B73/(SUM($C$47:C72)+1)</f>
+        <v>9.433962264150944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>1000</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1">
+        <f>B74/(SUM($C$47:C73)+1)</f>
+        <v>8.6206896551724146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>29</v>
+      </c>
+      <c r="B75">
+        <v>1000</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1">
+        <f>B75/(SUM($C$47:C74)+1)</f>
+        <v>7.9365079365079367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>1000</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1">
+        <f>B76/(SUM($C$47:C75)+1)</f>
+        <v>7.3529411764705879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
+        <v>31</v>
+      </c>
+      <c r="B77">
+        <v>2500</v>
+      </c>
+      <c r="C77">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1">
+        <f>B77/(SUM($C$47:C76)+1)</f>
+        <v>17.123287671232877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>32</v>
+      </c>
+      <c r="B78">
+        <v>2500</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78" s="1">
+        <f>B78/(SUM($C$47:C77)+1)</f>
+        <v>15.527950310559007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>33</v>
+      </c>
+      <c r="B79">
+        <v>2500</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79" s="1">
+        <f>B79/(SUM($C$47:C78)+1)</f>
+        <v>14.204545454545455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
+        <v>34</v>
+      </c>
+      <c r="B80">
+        <v>5000</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80" s="1">
+        <f>B80/(SUM($C$47:C79)+1)</f>
+        <v>26.178010471204189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
+        <v>35</v>
+      </c>
+      <c r="B81">
+        <v>5000</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81" s="1">
+        <f>B81/(SUM($C$47:C80)+1)</f>
+        <v>24.271844660194176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
+        <v>36</v>
+      </c>
+      <c r="B82">
+        <v>7500</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82" s="1">
+        <f>B82/(SUM($C$47:C81)+1)</f>
+        <v>33.936651583710407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>37</v>
+      </c>
+      <c r="B83">
+        <v>7500</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83" s="1">
+        <f>B83/(SUM($C$47:C82)+1)</f>
+        <v>31.779661016949152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>7500</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84" s="1">
+        <f>B84/(SUM($C$47:C83)+1)</f>
+        <v>28.195488721804512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>39</v>
+      </c>
+      <c r="B85">
+        <v>10000</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+      <c r="D85" s="1">
+        <f>B85/(SUM($C$47:C84)+1)</f>
+        <v>33.783783783783782</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
+        <v>40</v>
+      </c>
+      <c r="B86">
+        <v>10000</v>
+      </c>
+      <c r="C86">
+        <v>30</v>
+      </c>
+      <c r="D86" s="1">
+        <f>B86/(SUM($C$47:C85)+1)</f>
+        <v>30.674846625766872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>41</v>
+      </c>
+      <c r="B87">
+        <v>10000</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87" s="1">
+        <f>B87/(SUM($C$47:C86)+1)</f>
+        <v>28.089887640449437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>42</v>
+      </c>
+      <c r="B88">
+        <v>15000</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+      <c r="D88" s="1">
+        <f>B88/(SUM($C$47:C87)+1)</f>
+        <v>32.89473684210526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>43</v>
+      </c>
+      <c r="B89">
+        <v>15000</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89" s="1">
+        <f>B89/(SUM($C$47:C88)+1)</f>
+        <v>26.978417266187051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="12">
+        <v>44</v>
+      </c>
+      <c r="B90">
+        <v>15000</v>
+      </c>
+      <c r="C90">
+        <v>500</v>
+      </c>
+      <c r="D90" s="1">
+        <f>B90/(SUM($C$47:C89)+1)</f>
+        <v>22.865853658536587</v>
       </c>
     </row>
   </sheetData>
